--- a/error_case.xlsx
+++ b/error_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuelingliang/Work/Demo/ApiTestAgent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83DDCC-D98B-4F4C-AE53-3ABBC428B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C03D6-FC3E-0D40-9903-6D874AC33079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>用例描述</t>
   </si>
@@ -78,6 +78,25 @@
   </si>
   <si>
     <t>请求体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=$.code;message=$.message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$code=400;$message=token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,13 +526,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36">
@@ -540,10 +561,14 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">

--- a/error_case.xlsx
+++ b/error_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuelingliang/Work/Demo/ApiTestAgent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C03D6-FC3E-0D40-9903-6D874AC33079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788006C-2FC3-A84B-BCAB-9B0B074322D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>用例描述</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>accessToken=Null</t>
-  </si>
-  <si>
-    <t>accessToken=Empty</t>
   </si>
   <si>
     <t>accessToken=1</t>
@@ -97,6 +94,25 @@
       </rPr>
       <t>无效</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$code=400;$message=token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能为空</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessToken=Empty</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +542,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -534,7 +550,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36">
@@ -542,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -556,13 +572,13 @@
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -573,72 +589,104 @@
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
